--- a/Excels/bearer.xlsx
+++ b/Excels/bearer.xlsx
@@ -404,14 +404,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>B1V5xkanqAYbzbY0BdZITRvrKomC</t>
+          <t>ABdTAvtA6GbP0nAGEtoxsiDXAAU0</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7uZ9B5Kj4tG43YxzWGciPHONzGMAj9fi</t>
+          <t>QE7hLudLNMRSMOieqwWjW5LXlpBsyyyT</t>
         </is>
       </c>
     </row>

--- a/Excels/bearer.xlsx
+++ b/Excels/bearer.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="22932" yWindow="-72" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -404,14 +404,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ABdTAvtA6GbP0nAGEtoxsiDXAAU0</t>
+          <t>ZoPVDGRiThcImLOHj4Lh0kZU08DL</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>QE7hLudLNMRSMOieqwWjW5LXlpBsyyyT</t>
+          <t>FN0RUpLuRCNGiXZRUaBv8azgQA6Wde2F</t>
         </is>
       </c>
     </row>

--- a/Excels/bearer.xlsx
+++ b/Excels/bearer.xlsx
@@ -404,14 +404,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ZoPVDGRiThcImLOHj4Lh0kZU08DL</t>
+          <t>r8TciB5i3oCvxBANk8i6YwqX9oTK</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FN0RUpLuRCNGiXZRUaBv8azgQA6Wde2F</t>
+          <t>fXPYTqKpE9vh4vYV3lmv1Q4UAbNHyJrV</t>
         </is>
       </c>
     </row>

--- a/Excels/bearer.xlsx
+++ b/Excels/bearer.xlsx
@@ -393,7 +393,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -404,14 +404,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>r8TciB5i3oCvxBANk8i6YwqX9oTK</t>
+          <t>7LrLEZtzABEcD09uzSTmsN0yKDeI</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fXPYTqKpE9vh4vYV3lmv1Q4UAbNHyJrV</t>
+          <t>t4e669AHmdDK5W4rDUuXdWxxAF8GpH0K</t>
         </is>
       </c>
     </row>

--- a/Excels/bearer.xlsx
+++ b/Excels/bearer.xlsx
@@ -404,14 +404,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>7LrLEZtzABEcD09uzSTmsN0yKDeI</t>
+          <t>5tWaO6OS8aX8qGzlZDOUTcWEk6lh</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t4e669AHmdDK5W4rDUuXdWxxAF8GpH0K</t>
+          <t>iACyl3ytvnROjx0FcZIgPB2ko90jPukV</t>
         </is>
       </c>
     </row>

--- a/Excels/bearer.xlsx
+++ b/Excels/bearer.xlsx
@@ -404,14 +404,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>5tWaO6OS8aX8qGzlZDOUTcWEk6lh</t>
+          <t>jpZytMp1CW3Q3seN5sVGfux75ALd</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>iACyl3ytvnROjx0FcZIgPB2ko90jPukV</t>
+          <t>ZexLk0KgM2Gu4RUjCOTmYmxdjzWImf7F</t>
         </is>
       </c>
     </row>

--- a/Excels/bearer.xlsx
+++ b/Excels/bearer.xlsx
@@ -404,14 +404,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>jpZytMp1CW3Q3seN5sVGfux75ALd</t>
+          <t>UKysMRQiU8OmNjpApGVEMkzWV0Qt</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ZexLk0KgM2Gu4RUjCOTmYmxdjzWImf7F</t>
+          <t>grBIPKVQrQmaQgSML18nck15AKAMXXrJ</t>
         </is>
       </c>
     </row>

--- a/Excels/bearer.xlsx
+++ b/Excels/bearer.xlsx
@@ -404,14 +404,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>UKysMRQiU8OmNjpApGVEMkzWV0Qt</t>
+          <t>hRx5IuNB0epmU8qPtDvi42U0K2kx</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>grBIPKVQrQmaQgSML18nck15AKAMXXrJ</t>
+          <t>vUhCMTMWDYPxo497vPeHlNGT2VoXPPgP</t>
         </is>
       </c>
     </row>

--- a/Excels/bearer.xlsx
+++ b/Excels/bearer.xlsx
@@ -404,14 +404,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>hRx5IuNB0epmU8qPtDvi42U0K2kx</t>
+          <t>TJN9wrMq0EtAsbnp3eOctGZTNRPn</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>vUhCMTMWDYPxo497vPeHlNGT2VoXPPgP</t>
+          <t>NRWs6bAu1A2BAhq2AnzDPcWd3hAtY6Jr</t>
         </is>
       </c>
     </row>

--- a/Excels/bearer.xlsx
+++ b/Excels/bearer.xlsx
@@ -404,14 +404,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>TJN9wrMq0EtAsbnp3eOctGZTNRPn</t>
+          <t>WpjPFdAWOCaGkUY3n6hOOeq06317</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NRWs6bAu1A2BAhq2AnzDPcWd3hAtY6Jr</t>
+          <t>4OGn9dTpT8dYknmABi4ePAT2P31M4m5v</t>
         </is>
       </c>
     </row>

--- a/Excels/bearer.xlsx
+++ b/Excels/bearer.xlsx
@@ -404,14 +404,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>WpjPFdAWOCaGkUY3n6hOOeq06317</t>
+          <t>2wyZ5DeoI5TkaN9EZvPbG53ZwJaQ</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4OGn9dTpT8dYknmABi4ePAT2P31M4m5v</t>
+          <t>IGltDn5mDp5BCDTiMtuHmwisIbpG6puZ</t>
         </is>
       </c>
     </row>

--- a/Excels/bearer.xlsx
+++ b/Excels/bearer.xlsx
@@ -404,14 +404,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2wyZ5DeoI5TkaN9EZvPbG53ZwJaQ</t>
+          <t>kfwPIXfdIY4rVgVJg9kn5HpSYuZl</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IGltDn5mDp5BCDTiMtuHmwisIbpG6puZ</t>
+          <t>bjGvJPqGu42wyHVf7mHPti5AVq8BYELx</t>
         </is>
       </c>
     </row>

--- a/Excels/bearer.xlsx
+++ b/Excels/bearer.xlsx
@@ -1,33 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python_Projects\Lynxal\Lynxal_Stock\Excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2367292-0AF9-40B6-AA9F-961BDE858567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>TxRjmqA7pHs9R3RKslraMsp6nfVX</t>
+  </si>
+  <si>
+    <t>YI2XG6YH8ocN5bpASg0zfdi4VUuwldlb</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +62,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,34 +342,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="33.140625" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>kfwPIXfdIY4rVgVJg9kn5HpSYuZl</t>
-        </is>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>bjGvJPqGu42wyHVf7mHPti5AVq8BYELx</t>
-        </is>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/bearer.xlsx
+++ b/Excels/bearer.xlsx
@@ -1,49 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python_Projects\Lynxal\Lynxal_Stock\Excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2367292-0AF9-40B6-AA9F-961BDE858567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>TxRjmqA7pHs9R3RKslraMsp6nfVX</t>
-  </si>
-  <si>
-    <t>YI2XG6YH8ocN5bpASg0zfdi4VUuwldlb</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -62,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -342,26 +385,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1"/>
+    <col width="33.109375" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Py2KcAiAHQAPVHIDXhJFZMIOlj7R</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>hcy83u5QXC89QyXEetJaIb8JdCcKCOmW</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Excels/bearer.xlsx
+++ b/Excels/bearer.xlsx
@@ -1,33 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python_Projects\Lynxal\Lynxal_Stock\Excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362B4534-7A60-4E05-A7C4-723B8FA00FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>uWwl8hA7Kj9CvALsAwjW3aArSjk4</t>
+  </si>
+  <si>
+    <t>hPMPmmjKSHUiVJ1PZvUhFqQbTtn2oXdg</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +62,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,37 +342,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="33.109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Py2KcAiAHQAPVHIDXhJFZMIOlj7R</t>
-        </is>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>hcy83u5QXC89QyXEetJaIb8JdCcKCOmW</t>
-        </is>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excels/bearer.xlsx
+++ b/Excels/bearer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python_Projects\Lynxal\Lynxal_Stock\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362B4534-7A60-4E05-A7C4-723B8FA00FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605F107D-5620-4DC4-B5E6-B763F68C50E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>uWwl8hA7Kj9CvALsAwjW3aArSjk4</t>
+    <t>56GHD4ZnYLxoHKZDAaAzAqll9xde</t>
   </si>
   <si>
-    <t>hPMPmmjKSHUiVJ1PZvUhFqQbTtn2oXdg</t>
+    <t>SYjFKXml8K509XVj0UTWq8BDe8GUpwKp</t>
   </si>
 </sst>
 </file>

--- a/Excels/bearer.xlsx
+++ b/Excels/bearer.xlsx
@@ -1,49 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python_Projects\Lynxal\Lynxal_Stock\Excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605F107D-5620-4DC4-B5E6-B763F68C50E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>56GHD4ZnYLxoHKZDAaAzAqll9xde</t>
-  </si>
-  <si>
-    <t>SYjFKXml8K509XVj0UTWq8BDe8GUpwKp</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -62,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -342,30 +385,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1"/>
+    <col width="33.109375" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>BBikqAfceWzgp2TAVdxiIDJGcGvh</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>7zkmApkBc1y63uE33zcvnUi1xdYXtrrj</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>